--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Snca-Lag3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Snca-Lag3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Snca</t>
+  </si>
+  <si>
+    <t>Lag3</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Snca</t>
-  </si>
-  <si>
-    <t>Lag3</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.141273</v>
+        <v>0.052698</v>
       </c>
       <c r="H2">
-        <v>0.4238189999999999</v>
+        <v>0.158094</v>
       </c>
       <c r="I2">
-        <v>0.3794482221436341</v>
+        <v>0.3297946684300886</v>
       </c>
       <c r="J2">
-        <v>0.3794482221436342</v>
+        <v>0.3297946684300886</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.972749000000001</v>
+        <v>7.806827333333334</v>
       </c>
       <c r="N2">
-        <v>14.918247</v>
+        <v>23.420482</v>
       </c>
       <c r="O2">
-        <v>0.1267985204953649</v>
+        <v>0.3564356619476692</v>
       </c>
       <c r="P2">
-        <v>0.1267985204953649</v>
+        <v>0.3564356619476692</v>
       </c>
       <c r="Q2">
-        <v>0.7025151694770001</v>
+        <v>0.411404186812</v>
       </c>
       <c r="R2">
-        <v>6.322636525293</v>
+        <v>3.702637681308</v>
       </c>
       <c r="S2">
-        <v>0.04811347317240935</v>
+        <v>0.1175505809486907</v>
       </c>
       <c r="T2">
-        <v>0.04811347317240935</v>
+        <v>0.1175505809486907</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.141273</v>
+        <v>0.052698</v>
       </c>
       <c r="H3">
-        <v>0.4238189999999999</v>
+        <v>0.158094</v>
       </c>
       <c r="I3">
-        <v>0.3794482221436341</v>
+        <v>0.3297946684300886</v>
       </c>
       <c r="J3">
-        <v>0.3794482221436342</v>
+        <v>0.3297946684300886</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.661741999999999</v>
+        <v>4.661742</v>
       </c>
       <c r="N3">
         <v>13.985226</v>
       </c>
       <c r="O3">
-        <v>0.118868253461235</v>
+        <v>0.2128407641993771</v>
       </c>
       <c r="P3">
-        <v>0.118868253461235</v>
+        <v>0.212840764199377</v>
       </c>
       <c r="Q3">
-        <v>0.6585782775659998</v>
+        <v>0.245664479916</v>
       </c>
       <c r="R3">
-        <v>5.927204498093999</v>
+        <v>2.210980319244</v>
       </c>
       <c r="S3">
-        <v>0.04510434744518451</v>
+        <v>0.07019374925754022</v>
       </c>
       <c r="T3">
-        <v>0.04510434744518452</v>
+        <v>0.07019374925754022</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.141273</v>
+        <v>0.052698</v>
       </c>
       <c r="H4">
-        <v>0.4238189999999999</v>
+        <v>0.158094</v>
       </c>
       <c r="I4">
-        <v>0.3794482221436341</v>
+        <v>0.3297946684300886</v>
       </c>
       <c r="J4">
-        <v>0.3794482221436342</v>
+        <v>0.3297946684300886</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.194976</v>
+        <v>2.225227333333333</v>
       </c>
       <c r="N4">
-        <v>21.584928</v>
+        <v>6.675682</v>
       </c>
       <c r="O4">
-        <v>0.1834623689632552</v>
+        <v>0.1015970180554841</v>
       </c>
       <c r="P4">
-        <v>0.1834623689632551</v>
+        <v>0.1015970180554841</v>
       </c>
       <c r="Q4">
-        <v>1.016455844448</v>
+        <v>0.117265030012</v>
       </c>
       <c r="R4">
-        <v>9.148102600031997</v>
+        <v>1.055385270108</v>
       </c>
       <c r="S4">
-        <v>0.0696144697333666</v>
+        <v>0.0335061548830941</v>
       </c>
       <c r="T4">
-        <v>0.0696144697333666</v>
+        <v>0.03350615488309411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.141273</v>
+        <v>0.052698</v>
       </c>
       <c r="H5">
-        <v>0.4238189999999999</v>
+        <v>0.158094</v>
       </c>
       <c r="I5">
-        <v>0.3794482221436341</v>
+        <v>0.3297946684300886</v>
       </c>
       <c r="J5">
-        <v>0.3794482221436342</v>
+        <v>0.3297946684300886</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.546219000000001</v>
+        <v>2.309581</v>
       </c>
       <c r="N5">
-        <v>16.638657</v>
+        <v>6.928743</v>
       </c>
       <c r="O5">
-        <v>0.1414212467878998</v>
+        <v>0.1054483463521494</v>
       </c>
       <c r="P5">
-        <v>0.1414212467878998</v>
+        <v>0.1054483463521493</v>
       </c>
       <c r="Q5">
-        <v>0.783530996787</v>
+        <v>0.121710299538</v>
       </c>
       <c r="R5">
-        <v>7.051778971083</v>
+        <v>1.095392695842</v>
       </c>
       <c r="S5">
-        <v>0.0536620406670047</v>
+        <v>0.03477630242170824</v>
       </c>
       <c r="T5">
-        <v>0.05366204066700471</v>
+        <v>0.03477630242170824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.141273</v>
+        <v>0.052698</v>
       </c>
       <c r="H6">
-        <v>0.4238189999999999</v>
+        <v>0.158094</v>
       </c>
       <c r="I6">
-        <v>0.3794482221436341</v>
+        <v>0.3297946684300886</v>
       </c>
       <c r="J6">
-        <v>0.3794482221436342</v>
+        <v>0.3297946684300886</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.29111</v>
+        <v>2.936864333333334</v>
       </c>
       <c r="N6">
-        <v>6.873330000000001</v>
+        <v>8.810593000000001</v>
       </c>
       <c r="O6">
-        <v>0.05842027383488195</v>
+        <v>0.134088168984161</v>
       </c>
       <c r="P6">
-        <v>0.05842027383488194</v>
+        <v>0.134088168984161</v>
       </c>
       <c r="Q6">
-        <v>0.32367198303</v>
+        <v>0.154766876638</v>
       </c>
       <c r="R6">
-        <v>2.91304784727</v>
+        <v>1.392901889742</v>
       </c>
       <c r="S6">
-        <v>0.02216746904379022</v>
+        <v>0.04422156323052907</v>
       </c>
       <c r="T6">
-        <v>0.02216746904379022</v>
+        <v>0.04422156323052907</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.141273</v>
+        <v>0.052698</v>
       </c>
       <c r="H7">
-        <v>0.4238189999999999</v>
+        <v>0.158094</v>
       </c>
       <c r="I7">
-        <v>0.3794482221436341</v>
+        <v>0.3297946684300886</v>
       </c>
       <c r="J7">
-        <v>0.3794482221436342</v>
+        <v>0.3297946684300886</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.550925</v>
+        <v>1.962244666666667</v>
       </c>
       <c r="N7">
-        <v>43.652775</v>
+        <v>5.886734000000001</v>
       </c>
       <c r="O7">
-        <v>0.3710293364573632</v>
+        <v>0.0895900404611592</v>
       </c>
       <c r="P7">
-        <v>0.3710293364573632</v>
+        <v>0.0895900404611592</v>
       </c>
       <c r="Q7">
-        <v>2.055652827524999</v>
+        <v>0.103406369444</v>
       </c>
       <c r="R7">
-        <v>18.500875447725</v>
+        <v>0.9306573249960002</v>
       </c>
       <c r="S7">
-        <v>0.1407864220818787</v>
+        <v>0.02954631768852622</v>
       </c>
       <c r="T7">
-        <v>0.1407864220818787</v>
+        <v>0.02954631768852622</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.052698</v>
+        <v>0.1070923333333333</v>
       </c>
       <c r="H8">
-        <v>0.158094</v>
+        <v>0.321277</v>
       </c>
       <c r="I8">
-        <v>0.1415427039174169</v>
+        <v>0.6702053315699114</v>
       </c>
       <c r="J8">
-        <v>0.1415427039174169</v>
+        <v>0.6702053315699114</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.972749000000001</v>
+        <v>7.806827333333334</v>
       </c>
       <c r="N8">
-        <v>14.918247</v>
+        <v>23.420482</v>
       </c>
       <c r="O8">
-        <v>0.1267985204953649</v>
+        <v>0.3564356619476692</v>
       </c>
       <c r="P8">
-        <v>0.1267985204953649</v>
+        <v>0.3564356619476692</v>
       </c>
       <c r="Q8">
-        <v>0.2620539268020001</v>
+        <v>0.8360513550571111</v>
       </c>
       <c r="R8">
-        <v>2.358485341218</v>
+        <v>7.524462195513999</v>
       </c>
       <c r="S8">
-        <v>0.01794740544364195</v>
+        <v>0.2388850809989785</v>
       </c>
       <c r="T8">
-        <v>0.01794740544364195</v>
+        <v>0.2388850809989785</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.052698</v>
+        <v>0.1070923333333333</v>
       </c>
       <c r="H9">
-        <v>0.158094</v>
+        <v>0.321277</v>
       </c>
       <c r="I9">
-        <v>0.1415427039174169</v>
+        <v>0.6702053315699114</v>
       </c>
       <c r="J9">
-        <v>0.1415427039174169</v>
+        <v>0.6702053315699114</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.661741999999999</v>
+        <v>4.661742</v>
       </c>
       <c r="N9">
         <v>13.985226</v>
       </c>
       <c r="O9">
-        <v>0.118868253461235</v>
+        <v>0.2128407641993771</v>
       </c>
       <c r="P9">
-        <v>0.118868253461235</v>
+        <v>0.212840764199377</v>
       </c>
       <c r="Q9">
-        <v>0.245664479916</v>
+        <v>0.499236828178</v>
       </c>
       <c r="R9">
-        <v>2.210980319244</v>
+        <v>4.493131453602</v>
       </c>
       <c r="S9">
-        <v>0.01682493400484405</v>
+        <v>0.1426470149418368</v>
       </c>
       <c r="T9">
-        <v>0.01682493400484406</v>
+        <v>0.1426470149418368</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.052698</v>
+        <v>0.1070923333333333</v>
       </c>
       <c r="H10">
-        <v>0.158094</v>
+        <v>0.321277</v>
       </c>
       <c r="I10">
-        <v>0.1415427039174169</v>
+        <v>0.6702053315699114</v>
       </c>
       <c r="J10">
-        <v>0.1415427039174169</v>
+        <v>0.6702053315699114</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.194976</v>
+        <v>2.225227333333333</v>
       </c>
       <c r="N10">
-        <v>21.584928</v>
+        <v>6.675682</v>
       </c>
       <c r="O10">
-        <v>0.1834623689632552</v>
+        <v>0.1015970180554841</v>
       </c>
       <c r="P10">
-        <v>0.1834623689632551</v>
+        <v>0.1015970180554841</v>
       </c>
       <c r="Q10">
-        <v>0.379160845248</v>
+        <v>0.2383047873237778</v>
       </c>
       <c r="R10">
-        <v>3.412447607232</v>
+        <v>2.144743085914</v>
       </c>
       <c r="S10">
-        <v>0.02596775977015391</v>
+        <v>0.06809086317238999</v>
       </c>
       <c r="T10">
-        <v>0.02596775977015391</v>
+        <v>0.06809086317238999</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.052698</v>
+        <v>0.1070923333333333</v>
       </c>
       <c r="H11">
-        <v>0.158094</v>
+        <v>0.321277</v>
       </c>
       <c r="I11">
-        <v>0.1415427039174169</v>
+        <v>0.6702053315699114</v>
       </c>
       <c r="J11">
-        <v>0.1415427039174169</v>
+        <v>0.6702053315699114</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.546219000000001</v>
+        <v>2.309581</v>
       </c>
       <c r="N11">
-        <v>16.638657</v>
+        <v>6.928743</v>
       </c>
       <c r="O11">
-        <v>0.1414212467878998</v>
+        <v>0.1054483463521494</v>
       </c>
       <c r="P11">
-        <v>0.1414212467878998</v>
+        <v>0.1054483463521493</v>
       </c>
       <c r="Q11">
-        <v>0.2922746488620001</v>
+        <v>0.2473384183123333</v>
       </c>
       <c r="R11">
-        <v>2.630471839758</v>
+        <v>2.226045764811</v>
       </c>
       <c r="S11">
-        <v>0.02001714566173164</v>
+        <v>0.07067204393044112</v>
       </c>
       <c r="T11">
-        <v>0.02001714566173165</v>
+        <v>0.0706720439304411</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.052698</v>
+        <v>0.1070923333333333</v>
       </c>
       <c r="H12">
-        <v>0.158094</v>
+        <v>0.321277</v>
       </c>
       <c r="I12">
-        <v>0.1415427039174169</v>
+        <v>0.6702053315699114</v>
       </c>
       <c r="J12">
-        <v>0.1415427039174169</v>
+        <v>0.6702053315699114</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.29111</v>
+        <v>2.936864333333334</v>
       </c>
       <c r="N12">
-        <v>6.873330000000001</v>
+        <v>8.810593000000001</v>
       </c>
       <c r="O12">
-        <v>0.05842027383488195</v>
+        <v>0.134088168984161</v>
       </c>
       <c r="P12">
-        <v>0.05842027383488194</v>
+        <v>0.134088168984161</v>
       </c>
       <c r="Q12">
-        <v>0.12073691478</v>
+        <v>0.3145156541401111</v>
       </c>
       <c r="R12">
-        <v>1.08663223302</v>
+        <v>2.830640887261</v>
       </c>
       <c r="S12">
-        <v>0.00826896352218511</v>
+        <v>0.08986660575363194</v>
       </c>
       <c r="T12">
-        <v>0.008268963522185112</v>
+        <v>0.08986660575363191</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.052698</v>
+        <v>0.1070923333333333</v>
       </c>
       <c r="H13">
-        <v>0.158094</v>
+        <v>0.321277</v>
       </c>
       <c r="I13">
-        <v>0.1415427039174169</v>
+        <v>0.6702053315699114</v>
       </c>
       <c r="J13">
-        <v>0.1415427039174169</v>
+        <v>0.6702053315699114</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,400 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.550925</v>
+        <v>1.962244666666667</v>
       </c>
       <c r="N13">
-        <v>43.652775</v>
+        <v>5.886734000000001</v>
       </c>
       <c r="O13">
-        <v>0.3710293364573632</v>
+        <v>0.0895900404611592</v>
       </c>
       <c r="P13">
-        <v>0.3710293364573632</v>
+        <v>0.0895900404611592</v>
       </c>
       <c r="Q13">
-        <v>0.7668046456499999</v>
+        <v>0.2101413599242222</v>
       </c>
       <c r="R13">
-        <v>6.90124181085</v>
+        <v>1.891272239318</v>
       </c>
       <c r="S13">
-        <v>0.05251649551486021</v>
+        <v>0.06004372277263298</v>
       </c>
       <c r="T13">
-        <v>0.05251649551486021</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.1783406666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.535022</v>
-      </c>
-      <c r="I14">
-        <v>0.479009073938949</v>
-      </c>
-      <c r="J14">
-        <v>0.4790090739389491</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>4.972749000000001</v>
-      </c>
-      <c r="N14">
-        <v>14.918247</v>
-      </c>
-      <c r="O14">
-        <v>0.1267985204953649</v>
-      </c>
-      <c r="P14">
-        <v>0.1267985204953649</v>
-      </c>
-      <c r="Q14">
-        <v>0.8868433718260003</v>
-      </c>
-      <c r="R14">
-        <v>7.981590346434001</v>
-      </c>
-      <c r="S14">
-        <v>0.06073764187931358</v>
-      </c>
-      <c r="T14">
-        <v>0.06073764187931358</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.1783406666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.535022</v>
-      </c>
-      <c r="I15">
-        <v>0.479009073938949</v>
-      </c>
-      <c r="J15">
-        <v>0.4790090739389491</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>4.661741999999999</v>
-      </c>
-      <c r="N15">
-        <v>13.985226</v>
-      </c>
-      <c r="O15">
-        <v>0.118868253461235</v>
-      </c>
-      <c r="P15">
-        <v>0.118868253461235</v>
-      </c>
-      <c r="Q15">
-        <v>0.8313781761079999</v>
-      </c>
-      <c r="R15">
-        <v>7.482403584971999</v>
-      </c>
-      <c r="S15">
-        <v>0.05693897201120646</v>
-      </c>
-      <c r="T15">
-        <v>0.05693897201120647</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.1783406666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.535022</v>
-      </c>
-      <c r="I16">
-        <v>0.479009073938949</v>
-      </c>
-      <c r="J16">
-        <v>0.4790090739389491</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>7.194976</v>
-      </c>
-      <c r="N16">
-        <v>21.584928</v>
-      </c>
-      <c r="O16">
-        <v>0.1834623689632552</v>
-      </c>
-      <c r="P16">
-        <v>0.1834623689632551</v>
-      </c>
-      <c r="Q16">
-        <v>1.283156816490667</v>
-      </c>
-      <c r="R16">
-        <v>11.548411348416</v>
-      </c>
-      <c r="S16">
-        <v>0.08788013945973464</v>
-      </c>
-      <c r="T16">
-        <v>0.08788013945973464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.1783406666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.535022</v>
-      </c>
-      <c r="I17">
-        <v>0.479009073938949</v>
-      </c>
-      <c r="J17">
-        <v>0.4790090739389491</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>5.546219000000001</v>
-      </c>
-      <c r="N17">
-        <v>16.638657</v>
-      </c>
-      <c r="O17">
-        <v>0.1414212467878998</v>
-      </c>
-      <c r="P17">
-        <v>0.1414212467878998</v>
-      </c>
-      <c r="Q17">
-        <v>0.9891163939393335</v>
-      </c>
-      <c r="R17">
-        <v>8.902047545454002</v>
-      </c>
-      <c r="S17">
-        <v>0.06774206045916345</v>
-      </c>
-      <c r="T17">
-        <v>0.06774206045916346</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>0.1783406666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.535022</v>
-      </c>
-      <c r="I18">
-        <v>0.479009073938949</v>
-      </c>
-      <c r="J18">
-        <v>0.4790090739389491</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>2.29111</v>
-      </c>
-      <c r="N18">
-        <v>6.873330000000001</v>
-      </c>
-      <c r="O18">
-        <v>0.05842027383488195</v>
-      </c>
-      <c r="P18">
-        <v>0.05842027383488194</v>
-      </c>
-      <c r="Q18">
-        <v>0.4085980848066667</v>
-      </c>
-      <c r="R18">
-        <v>3.677382763260001</v>
-      </c>
-      <c r="S18">
-        <v>0.02798384126890662</v>
-      </c>
-      <c r="T18">
-        <v>0.02798384126890662</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.1783406666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.535022</v>
-      </c>
-      <c r="I19">
-        <v>0.479009073938949</v>
-      </c>
-      <c r="J19">
-        <v>0.4790090739389491</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>14.550925</v>
-      </c>
-      <c r="N19">
-        <v>43.652775</v>
-      </c>
-      <c r="O19">
-        <v>0.3710293364573632</v>
-      </c>
-      <c r="P19">
-        <v>0.3710293364573632</v>
-      </c>
-      <c r="Q19">
-        <v>2.595021665116667</v>
-      </c>
-      <c r="R19">
-        <v>23.35519498605</v>
-      </c>
-      <c r="S19">
-        <v>0.1777264188606243</v>
-      </c>
-      <c r="T19">
-        <v>0.1777264188606243</v>
+        <v>0.06004372277263298</v>
       </c>
     </row>
   </sheetData>
